--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gphb5-Tshr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gphb5-Tshr.xlsx
@@ -534,46 +534,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.3203896666666666</v>
+        <v>0.192899</v>
       </c>
       <c r="H2">
-        <v>0.9611689999999999</v>
+        <v>0.578697</v>
       </c>
       <c r="I2">
-        <v>0.07382438063517588</v>
+        <v>0.04416426199014034</v>
       </c>
       <c r="J2">
-        <v>0.07382438063517589</v>
+        <v>0.04416426199014033</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.8749903333333334</v>
+        <v>0.051093</v>
       </c>
       <c r="N2">
-        <v>2.624971</v>
+        <v>0.153279</v>
       </c>
       <c r="O2">
-        <v>0.2670516933349977</v>
+        <v>0.01450579975525089</v>
       </c>
       <c r="P2">
-        <v>0.2670516933349977</v>
+        <v>0.01450579975525089</v>
       </c>
       <c r="Q2">
-        <v>0.2803378612332222</v>
+        <v>0.009855788607000001</v>
       </c>
       <c r="R2">
-        <v>2.523040751099</v>
+        <v>0.08870209746300001</v>
       </c>
       <c r="S2">
-        <v>0.01971492585803113</v>
+        <v>0.0006406379407674137</v>
       </c>
       <c r="T2">
-        <v>0.01971492585803114</v>
+        <v>0.0006406379407674138</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.3203896666666666</v>
+        <v>0.192899</v>
       </c>
       <c r="H3">
-        <v>0.9611689999999999</v>
+        <v>0.578697</v>
       </c>
       <c r="I3">
-        <v>0.07382438063517588</v>
+        <v>0.04416426199014034</v>
       </c>
       <c r="J3">
-        <v>0.07382438063517589</v>
+        <v>0.04416426199014033</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>2.444111</v>
       </c>
       <c r="O3">
-        <v>0.2486518827250642</v>
+        <v>0.2313022967634575</v>
       </c>
       <c r="P3">
-        <v>0.2486518827250642</v>
+        <v>0.2313022967634575</v>
       </c>
       <c r="Q3">
-        <v>0.2610226361954444</v>
+        <v>0.1571555225963333</v>
       </c>
       <c r="R3">
-        <v>2.349203725759</v>
+        <v>1.414399703367</v>
       </c>
       <c r="S3">
-        <v>0.01835657123594825</v>
+        <v>0.01021529523318252</v>
       </c>
       <c r="T3">
-        <v>0.01835657123594826</v>
+        <v>0.01021529523318253</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.3203896666666666</v>
+        <v>0.192899</v>
       </c>
       <c r="H4">
-        <v>0.9611689999999999</v>
+        <v>0.578697</v>
       </c>
       <c r="I4">
-        <v>0.07382438063517588</v>
+        <v>0.04416426199014034</v>
       </c>
       <c r="J4">
-        <v>0.07382438063517589</v>
+        <v>0.04416426199014033</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.586789</v>
+        <v>2.656449666666667</v>
       </c>
       <c r="N4">
-        <v>4.760367</v>
+        <v>7.969348999999999</v>
       </c>
       <c r="O4">
-        <v>0.484296423939938</v>
+        <v>0.7541919034812916</v>
       </c>
       <c r="P4">
-        <v>0.484296423939938</v>
+        <v>0.7541919034812917</v>
       </c>
       <c r="Q4">
-        <v>0.5083907987803333</v>
+        <v>0.5124264842503333</v>
       </c>
       <c r="R4">
-        <v>4.575517189023</v>
+        <v>4.611838358252999</v>
       </c>
       <c r="S4">
-        <v>0.03575288354119649</v>
+        <v>0.0333083288161904</v>
       </c>
       <c r="T4">
-        <v>0.0357528835411965</v>
+        <v>0.0333083288161904</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>9.585665000000001</v>
       </c>
       <c r="I5">
-        <v>0.7362449076086343</v>
+        <v>0.7315465959037607</v>
       </c>
       <c r="J5">
-        <v>0.7362449076086343</v>
+        <v>0.7315465959037606</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.8749903333333334</v>
+        <v>0.051093</v>
       </c>
       <c r="N5">
-        <v>2.624971</v>
+        <v>0.153279</v>
       </c>
       <c r="O5">
-        <v>0.2670516933349977</v>
+        <v>0.01450579975525089</v>
       </c>
       <c r="P5">
-        <v>0.2670516933349977</v>
+        <v>0.01450579975525089</v>
       </c>
       <c r="Q5">
-        <v>2.795788071190556</v>
+        <v>0.163253460615</v>
       </c>
       <c r="R5">
-        <v>25.16209264071501</v>
+        <v>1.469281145535</v>
       </c>
       <c r="S5">
-        <v>0.1966154492861547</v>
+        <v>0.01061166843181539</v>
       </c>
       <c r="T5">
-        <v>0.1966154492861547</v>
+        <v>0.01061166843181539</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>9.585665000000001</v>
       </c>
       <c r="I6">
-        <v>0.7362449076086343</v>
+        <v>0.7315465959037607</v>
       </c>
       <c r="J6">
-        <v>0.7362449076086343</v>
+        <v>0.7315465959037606</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>2.444111</v>
       </c>
       <c r="O6">
-        <v>0.2486518827250642</v>
+        <v>0.2313022967634575</v>
       </c>
       <c r="P6">
-        <v>0.2486518827250642</v>
+        <v>0.2313022967634575</v>
       </c>
       <c r="Q6">
         <v>2.603158807646111</v>
@@ -818,10 +818,10 @@
         <v>23.428429268815</v>
       </c>
       <c r="S6">
-        <v>0.1830686824236278</v>
+        <v>0.1692084078220288</v>
       </c>
       <c r="T6">
-        <v>0.1830686824236279</v>
+        <v>0.1692084078220288</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>9.585665000000001</v>
       </c>
       <c r="I7">
-        <v>0.7362449076086343</v>
+        <v>0.7315465959037607</v>
       </c>
       <c r="J7">
-        <v>0.7362449076086343</v>
+        <v>0.7315465959037606</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.586789</v>
+        <v>2.656449666666667</v>
       </c>
       <c r="N7">
-        <v>4.760367</v>
+        <v>7.969348999999999</v>
       </c>
       <c r="O7">
-        <v>0.484296423939938</v>
+        <v>0.7541919034812916</v>
       </c>
       <c r="P7">
-        <v>0.484296423939938</v>
+        <v>0.7541919034812917</v>
       </c>
       <c r="Q7">
-        <v>5.070142593228335</v>
+        <v>8.487945531342778</v>
       </c>
       <c r="R7">
-        <v>45.63128333905501</v>
+        <v>76.391509782085</v>
       </c>
       <c r="S7">
-        <v>0.3565607758988517</v>
+        <v>0.5517265196499165</v>
       </c>
       <c r="T7">
-        <v>0.3565607758988517</v>
+        <v>0.5517265196499165</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.8242783333333333</v>
+        <v>0.9796416666666667</v>
       </c>
       <c r="H8">
-        <v>2.472835</v>
+        <v>2.938925</v>
       </c>
       <c r="I8">
-        <v>0.1899307117561898</v>
+        <v>0.224289142106099</v>
       </c>
       <c r="J8">
-        <v>0.1899307117561898</v>
+        <v>0.224289142106099</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.8749903333333334</v>
+        <v>0.051093</v>
       </c>
       <c r="N8">
-        <v>2.624971</v>
+        <v>0.153279</v>
       </c>
       <c r="O8">
-        <v>0.2670516933349977</v>
+        <v>0.01450579975525089</v>
       </c>
       <c r="P8">
-        <v>0.2670516933349977</v>
+        <v>0.01450579975525089</v>
       </c>
       <c r="Q8">
-        <v>0.7212355736427779</v>
+        <v>0.05005283167500001</v>
       </c>
       <c r="R8">
-        <v>6.491120162785001</v>
+        <v>0.450475485075</v>
       </c>
       <c r="S8">
-        <v>0.05072131819081184</v>
+        <v>0.003253493382668083</v>
       </c>
       <c r="T8">
-        <v>0.05072131819081185</v>
+        <v>0.003253493382668083</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.8242783333333333</v>
+        <v>0.9796416666666667</v>
       </c>
       <c r="H9">
-        <v>2.472835</v>
+        <v>2.938925</v>
       </c>
       <c r="I9">
-        <v>0.1899307117561898</v>
+        <v>0.224289142106099</v>
       </c>
       <c r="J9">
-        <v>0.1899307117561898</v>
+        <v>0.224289142106099</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>2.444111</v>
       </c>
       <c r="O9">
-        <v>0.2486518827250642</v>
+        <v>0.2313022967634575</v>
       </c>
       <c r="P9">
-        <v>0.2486518827250642</v>
+        <v>0.2313022967634575</v>
       </c>
       <c r="Q9">
-        <v>0.6715425805205555</v>
+        <v>0.7981176578527778</v>
       </c>
       <c r="R9">
-        <v>6.043883224685</v>
+        <v>7.183058920675</v>
       </c>
       <c r="S9">
-        <v>0.04722662906548807</v>
+        <v>0.0518785937082462</v>
       </c>
       <c r="T9">
-        <v>0.04722662906548809</v>
+        <v>0.05187859370824621</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.8242783333333333</v>
+        <v>0.9796416666666667</v>
       </c>
       <c r="H10">
-        <v>2.472835</v>
+        <v>2.938925</v>
       </c>
       <c r="I10">
-        <v>0.1899307117561898</v>
+        <v>0.224289142106099</v>
       </c>
       <c r="J10">
-        <v>0.1899307117561898</v>
+        <v>0.224289142106099</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.586789</v>
+        <v>2.656449666666667</v>
       </c>
       <c r="N10">
-        <v>4.760367</v>
+        <v>7.969348999999999</v>
       </c>
       <c r="O10">
-        <v>0.484296423939938</v>
+        <v>0.7541919034812916</v>
       </c>
       <c r="P10">
-        <v>0.484296423939938</v>
+        <v>0.7541919034812917</v>
       </c>
       <c r="Q10">
-        <v>1.307955792271667</v>
+        <v>2.602368778869445</v>
       </c>
       <c r="R10">
-        <v>11.771602130445</v>
+        <v>23.421319009825</v>
       </c>
       <c r="S10">
-        <v>0.09198276449988986</v>
+        <v>0.1691570550151847</v>
       </c>
       <c r="T10">
-        <v>0.09198276449988987</v>
+        <v>0.1691570550151847</v>
       </c>
     </row>
   </sheetData>
